--- a/data/trans_orig/iP22_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E1DB7F6-19A8-4427-85B4-0E8A21ECF3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D7B6C3-7C4C-4908-9ECE-BD22C137B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E1CFC4C-D5D3-44F5-9B45-9CCCE7E19D4F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2367F77F-6FCF-4C37-A412-BCFC4CE3CC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>73,29%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>79,55%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>26,71%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>27,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>18,2%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
     <t>78,27%</t>
   </si>
   <si>
@@ -419,6 +419,114 @@
     <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
     <t>72,36%</t>
   </si>
   <si>
@@ -473,58 +581,52 @@
     <t>31,87%</t>
   </si>
   <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>77,98%</t>
@@ -575,108 +677,6 @@
     <t>24,9%</t>
   </si>
   <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
     <t>72,44%</t>
   </si>
   <si>
@@ -734,6 +734,108 @@
     <t>Menores según si han utilizado las urgencias en el último año en 2015 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
     <t>84,29%</t>
   </si>
   <si>
@@ -788,52 +890,58 @@
     <t>20,17%</t>
   </si>
   <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>85,12%</t>
@@ -890,114 +998,6 @@
     <t>16,02%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
     <t>83,26%</t>
   </si>
   <si>
@@ -1055,6 +1055,108 @@
     <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>87,31%</t>
   </si>
   <si>
@@ -1109,52 +1211,52 @@
     <t>18,18%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>81,37%</t>
@@ -1203,108 +1305,6 @@
   </si>
   <si>
     <t>17,91%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
   </si>
   <si>
     <t>84,99%</t>
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2536582-0616-458D-8F30-BEEFD2A40DBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030F9E73-0652-4E11-88EA-9C1269CFD791}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1856,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>155470</v>
+        <v>21330</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1871,10 +1871,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>155212</v>
+        <v>18153</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1886,10 +1886,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>484</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>310682</v>
+        <v>39482</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1907,10 +1907,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>56672</v>
+        <v>4114</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1922,10 +1922,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>39951</v>
+        <v>4571</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1937,10 +1937,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>96623</v>
+        <v>8686</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1958,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1973,10 +1973,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1988,10 +1988,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2166,10 +2166,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D10" s="7">
-        <v>172506</v>
+        <v>155470</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2181,10 +2181,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="I10" s="7">
-        <v>181360</v>
+        <v>155212</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2196,10 +2196,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="N10" s="7">
-        <v>353866</v>
+        <v>310682</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2217,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D11" s="7">
-        <v>35318</v>
+        <v>56672</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2232,10 +2232,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I11" s="7">
-        <v>27955</v>
+        <v>39951</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2247,10 +2247,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="N11" s="7">
-        <v>63273</v>
+        <v>96623</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2268,10 +2268,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2283,10 +2283,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2298,10 +2298,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2321,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="D13" s="7">
-        <v>21330</v>
+        <v>110179</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2336,10 +2336,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I13" s="7">
-        <v>18153</v>
+        <v>101809</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2351,10 +2351,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>341</v>
       </c>
       <c r="N13" s="7">
-        <v>39482</v>
+        <v>211988</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2372,10 +2372,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>4114</v>
+        <v>39478</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2387,10 +2387,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>4571</v>
+        <v>36008</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2402,10 +2402,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="N14" s="7">
-        <v>8686</v>
+        <v>75486</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2423,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2438,10 +2438,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2453,10 +2453,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2476,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="D16" s="7">
-        <v>110179</v>
+        <v>172506</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2491,10 +2491,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="I16" s="7">
-        <v>101809</v>
+        <v>181360</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2506,10 +2506,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="N16" s="7">
-        <v>211988</v>
+        <v>353866</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2527,10 +2527,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>39478</v>
+        <v>35318</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>36008</v>
+        <v>27955</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2557,10 +2557,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="N17" s="7">
-        <v>75486</v>
+        <v>63273</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2578,10 +2578,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2593,10 +2593,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2608,10 +2608,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2796,7 +2796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA0B072-5F11-4749-8F32-438D61D803A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38E0B57-6024-4F8F-87F2-B4D258DE4358}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2914,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>161482</v>
+        <v>18215</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>126</v>
@@ -2929,10 +2929,10 @@
         <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>145977</v>
+        <v>18307</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>129</v>
@@ -2944,10 +2944,10 @@
         <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>461</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>307460</v>
+        <v>36523</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>132</v>
@@ -2965,10 +2965,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>61684</v>
+        <v>7240</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>135</v>
@@ -2980,10 +2980,10 @@
         <v>137</v>
       </c>
       <c r="H5" s="7">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>59736</v>
+        <v>4066</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>138</v>
@@ -2995,10 +2995,10 @@
         <v>140</v>
       </c>
       <c r="M5" s="7">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>121419</v>
+        <v>11305</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>141</v>
@@ -3016,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>223166</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3031,10 +3031,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205713</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3046,10 +3046,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>641</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>428879</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3224,10 +3224,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D10" s="7">
-        <v>161927</v>
+        <v>161482</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>162</v>
@@ -3239,10 +3239,10 @@
         <v>164</v>
       </c>
       <c r="H10" s="7">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="I10" s="7">
-        <v>167799</v>
+        <v>145977</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>165</v>
@@ -3251,22 +3251,22 @@
         <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="N10" s="7">
-        <v>329726</v>
+        <v>307460</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,49 +3275,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7">
-        <v>45727</v>
+        <v>61684</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I11" s="7">
-        <v>42501</v>
+        <v>59736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="N11" s="7">
-        <v>88228</v>
+        <v>121419</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,10 +3326,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="D12" s="7">
-        <v>207654</v>
+        <v>223166</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3341,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205713</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3356,10 +3356,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="N12" s="7">
-        <v>417954</v>
+        <v>428879</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3379,49 +3379,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7">
-        <v>18215</v>
+        <v>103913</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="I13" s="7">
-        <v>18307</v>
+        <v>122514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="N13" s="7">
-        <v>36523</v>
+        <v>226427</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,40 +3430,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D14" s="7">
-        <v>7240</v>
+        <v>60934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>4066</v>
+        <v>32862</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="N14" s="7">
-        <v>11305</v>
+        <v>93796</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>193</v>
@@ -3481,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>164847</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3496,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3511,10 +3511,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320223</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3534,10 +3534,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="D16" s="7">
-        <v>103913</v>
+        <v>161927</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>196</v>
@@ -3549,25 +3549,25 @@
         <v>198</v>
       </c>
       <c r="H16" s="7">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="I16" s="7">
-        <v>122514</v>
+        <v>167799</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="N16" s="7">
-        <v>226427</v>
+        <v>329726</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>201</v>
@@ -3585,10 +3585,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>60934</v>
+        <v>45727</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>204</v>
@@ -3600,25 +3600,25 @@
         <v>206</v>
       </c>
       <c r="H17" s="7">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>32862</v>
+        <v>42501</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="M17" s="7">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="N17" s="7">
-        <v>93796</v>
+        <v>88228</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>209</v>
@@ -3636,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="D18" s="7">
-        <v>164847</v>
+        <v>207654</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3651,10 +3651,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3666,10 +3666,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="N18" s="7">
-        <v>320223</v>
+        <v>417954</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3854,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751A2661-B802-44E8-BB02-63EE902E12AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5D105A-5921-4A71-B88F-68D7B5BB009D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3972,10 +3972,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>189109</v>
+        <v>20457</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3987,10 +3987,10 @@
         <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>168770</v>
+        <v>17078</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -4002,10 +4002,10 @@
         <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>551</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>357879</v>
+        <v>37535</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -4023,10 +4023,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>35250</v>
+        <v>5117</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -4038,10 +4038,10 @@
         <v>242</v>
       </c>
       <c r="H5" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>38477</v>
+        <v>5449</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -4053,10 +4053,10 @@
         <v>245</v>
       </c>
       <c r="M5" s="7">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>73727</v>
+        <v>10566</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -4074,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4104,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4163,7 @@
         <v>191214</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>255</v>
@@ -4214,7 +4214,7 @@
         <v>42468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>263</v>
@@ -4282,10 +4282,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D10" s="7">
-        <v>174419</v>
+        <v>189109</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>265</v>
@@ -4297,10 +4297,10 @@
         <v>267</v>
       </c>
       <c r="H10" s="7">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>182763</v>
+        <v>168770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>268</v>
@@ -4312,10 +4312,10 @@
         <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="N10" s="7">
-        <v>357183</v>
+        <v>357879</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>271</v>
@@ -4333,10 +4333,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>30499</v>
+        <v>35250</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>274</v>
@@ -4348,10 +4348,10 @@
         <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>24657</v>
+        <v>38477</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>277</v>
@@ -4363,10 +4363,10 @@
         <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="N11" s="7">
-        <v>55155</v>
+        <v>73727</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>280</v>
@@ -4384,10 +4384,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>204918</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4399,10 +4399,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +4414,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>570</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>412338</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4437,10 +4437,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="D13" s="7">
-        <v>20457</v>
+        <v>134264</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>283</v>
@@ -4452,10 +4452,10 @@
         <v>285</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I13" s="7">
-        <v>17078</v>
+        <v>121711</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>286</v>
@@ -4467,10 +4467,10 @@
         <v>288</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="N13" s="7">
-        <v>37535</v>
+        <v>255975</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>289</v>
@@ -4488,10 +4488,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>5117</v>
+        <v>32409</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>292</v>
@@ -4503,10 +4503,10 @@
         <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>5449</v>
+        <v>34286</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>295</v>
@@ -4518,10 +4518,10 @@
         <v>297</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="N14" s="7">
-        <v>10566</v>
+        <v>66695</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>298</v>
@@ -4539,10 +4539,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4554,10 +4554,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4569,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4592,10 +4592,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="D16" s="7">
-        <v>134264</v>
+        <v>174419</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>301</v>
@@ -4607,10 +4607,10 @@
         <v>303</v>
       </c>
       <c r="H16" s="7">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="I16" s="7">
-        <v>121711</v>
+        <v>182763</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>304</v>
@@ -4622,10 +4622,10 @@
         <v>306</v>
       </c>
       <c r="M16" s="7">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="N16" s="7">
-        <v>255975</v>
+        <v>357183</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>307</v>
@@ -4643,10 +4643,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>32409</v>
+        <v>30499</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>310</v>
@@ -4658,10 +4658,10 @@
         <v>312</v>
       </c>
       <c r="H17" s="7">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>34286</v>
+        <v>24657</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>313</v>
@@ -4673,10 +4673,10 @@
         <v>315</v>
       </c>
       <c r="M17" s="7">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="N17" s="7">
-        <v>66695</v>
+        <v>55155</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>316</v>
@@ -4694,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>204918</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4709,10 +4709,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4724,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>412338</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4912,7 +4912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D245607A-8E71-4BA7-AE14-48857BBFAB30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E538D4-0E8F-4A21-8B73-92F71050819F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5030,10 +5030,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>218448</v>
+        <v>11391</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>338</v>
@@ -5045,10 +5045,10 @@
         <v>340</v>
       </c>
       <c r="H4" s="7">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>158356</v>
+        <v>11876</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>341</v>
@@ -5060,10 +5060,10 @@
         <v>343</v>
       </c>
       <c r="M4" s="7">
-        <v>531</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>376804</v>
+        <v>23267</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>344</v>
@@ -5081,10 +5081,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>31738</v>
+        <v>1307</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>347</v>
@@ -5096,10 +5096,10 @@
         <v>349</v>
       </c>
       <c r="H5" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>33996</v>
+        <v>4911</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>350</v>
@@ -5111,10 +5111,10 @@
         <v>352</v>
       </c>
       <c r="M5" s="7">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>65734</v>
+        <v>6218</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>353</v>
@@ -5132,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5147,10 +5147,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5162,10 +5162,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5224,7 +5224,7 @@
         <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>363</v>
@@ -5278,7 +5278,7 @@
         <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,10 +5340,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="D10" s="7">
-        <v>142413</v>
+        <v>218448</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>372</v>
@@ -5355,10 +5355,10 @@
         <v>374</v>
       </c>
       <c r="H10" s="7">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="I10" s="7">
-        <v>154076</v>
+        <v>158356</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>375</v>
@@ -5370,19 +5370,19 @@
         <v>377</v>
       </c>
       <c r="M10" s="7">
-        <v>406</v>
+        <v>531</v>
       </c>
       <c r="N10" s="7">
-        <v>296488</v>
+        <v>376804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,49 +5391,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>32603</v>
+        <v>31738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>17135</v>
+        <v>33996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="N11" s="7">
-        <v>49738</v>
+        <v>65734</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,10 +5442,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5457,10 +5457,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171211</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5472,10 +5472,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346226</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5495,49 +5495,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="D13" s="7">
-        <v>11391</v>
+        <v>147910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="I13" s="7">
-        <v>11876</v>
+        <v>141141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>23267</v>
+        <v>289051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,49 +5546,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>1307</v>
+        <v>25298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>4911</v>
+        <v>26761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>6218</v>
+        <v>52059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,10 +5597,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5612,10 +5612,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5627,10 +5627,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5653,7 +5653,7 @@
         <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>147910</v>
+        <v>142413</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>406</v>
@@ -5665,10 +5665,10 @@
         <v>408</v>
       </c>
       <c r="H16" s="7">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="I16" s="7">
-        <v>141141</v>
+        <v>154076</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>409</v>
@@ -5680,16 +5680,16 @@
         <v>411</v>
       </c>
       <c r="M16" s="7">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="N16" s="7">
-        <v>289051</v>
+        <v>296488</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>413</v>
@@ -5701,10 +5701,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>25298</v>
+        <v>32603</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>414</v>
@@ -5716,10 +5716,10 @@
         <v>416</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>26761</v>
+        <v>17135</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>417</v>
@@ -5731,19 +5731,19 @@
         <v>419</v>
       </c>
       <c r="M17" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N17" s="7">
-        <v>52059</v>
+        <v>49738</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5767,10 +5767,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171211</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5782,10 +5782,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="N18" s="7">
-        <v>341110</v>
+        <v>346226</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5814,7 +5814,7 @@
         <v>422</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>423</v>
@@ -5826,7 +5826,7 @@
         <v>553942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>424</v>
@@ -5868,7 +5868,7 @@
         <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -5877,7 +5877,7 @@
         <v>98205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>431</v>

--- a/data/trans_orig/iP22_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D7B6C3-7C4C-4908-9ECE-BD22C137B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB33506A-6629-46F4-96AC-5104E810FFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2367F77F-6FCF-4C37-A412-BCFC4CE3CC5E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C77E5780-7F7F-40B5-A2CD-318A9DC5467B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1216 +137,1231 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>74,86%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2015 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>87,26%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1372,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1453,39 +1468,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1537,7 +1552,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1648,13 +1663,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1663,6 +1671,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1727,19 +1742,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030F9E73-0652-4E11-88EA-9C1269CFD791}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DE6F3-0E6B-45B3-88A2-7FB79FBFD5E1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1856,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>21330</v>
+        <v>4114</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1871,10 +1906,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>18153</v>
+        <v>4571</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1886,10 +1921,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>39482</v>
+        <v>8686</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1907,10 +1942,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>4114</v>
+        <v>21330</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1922,10 +1957,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>4571</v>
+        <v>18153</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1937,10 +1972,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>8686</v>
+        <v>39482</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2011,10 +2046,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>106186</v>
+        <v>21447</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2026,10 +2061,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>92826</v>
+        <v>23176</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2041,10 +2076,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>199013</v>
+        <v>44622</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2062,10 +2097,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="D8" s="7">
-        <v>21447</v>
+        <v>106186</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2077,10 +2112,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I8" s="7">
-        <v>23176</v>
+        <v>92826</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2092,10 +2127,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c r="N8" s="7">
-        <v>44622</v>
+        <v>199013</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2166,10 +2201,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>155470</v>
+        <v>56672</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2181,10 +2216,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>155212</v>
+        <v>39951</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2196,10 +2231,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>484</v>
+        <v>150</v>
       </c>
       <c r="N10" s="7">
-        <v>310682</v>
+        <v>96623</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2217,10 +2252,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="D11" s="7">
-        <v>56672</v>
+        <v>155470</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2232,10 +2267,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>39951</v>
+        <v>155212</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2247,10 +2282,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>150</v>
+        <v>484</v>
       </c>
       <c r="N11" s="7">
-        <v>96623</v>
+        <v>310682</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2321,10 +2356,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>110179</v>
+        <v>39478</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2336,10 +2371,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>101809</v>
+        <v>36008</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2351,10 +2386,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>341</v>
+        <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>211988</v>
+        <v>75486</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2372,10 +2407,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7">
-        <v>39478</v>
+        <v>110179</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2387,10 +2422,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="I14" s="7">
-        <v>36008</v>
+        <v>101809</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2402,10 +2437,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>120</v>
+        <v>341</v>
       </c>
       <c r="N14" s="7">
-        <v>75486</v>
+        <v>211988</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2476,10 +2511,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>172506</v>
+        <v>35318</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2491,10 +2526,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>181360</v>
+        <v>27955</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2506,10 +2541,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>491</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>353866</v>
+        <v>63273</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2527,10 +2562,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="D17" s="7">
-        <v>35318</v>
+        <v>172506</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2542,10 +2577,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="I17" s="7">
-        <v>27955</v>
+        <v>181360</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2557,10 +2592,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>89</v>
+        <v>491</v>
       </c>
       <c r="N17" s="7">
-        <v>63273</v>
+        <v>353866</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2631,10 +2666,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>851</v>
+        <v>235</v>
       </c>
       <c r="D19" s="7">
-        <v>565671</v>
+        <v>157029</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2646,10 +2681,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>817</v>
+        <v>201</v>
       </c>
       <c r="I19" s="7">
-        <v>549360</v>
+        <v>131661</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -2661,10 +2696,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1668</v>
+        <v>436</v>
       </c>
       <c r="N19" s="7">
-        <v>1115031</v>
+        <v>288690</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -2682,10 +2717,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>235</v>
+        <v>851</v>
       </c>
       <c r="D20" s="7">
-        <v>157029</v>
+        <v>565671</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2697,10 +2732,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>201</v>
+        <v>817</v>
       </c>
       <c r="I20" s="7">
-        <v>131661</v>
+        <v>549360</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -2712,10 +2747,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>436</v>
+        <v>1668</v>
       </c>
       <c r="N20" s="7">
-        <v>288690</v>
+        <v>1115031</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2776,6 +2811,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2796,8 +2836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38E0B57-6024-4F8F-87F2-B4D258DE4358}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC764E16-3550-4C81-8E6E-437F6E5ACD73}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2813,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2914,25 +2954,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>18215</v>
+        <v>7240</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>18307</v>
+        <v>4066</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>129</v>
@@ -2944,10 +2984,10 @@
         <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>36523</v>
+        <v>11305</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>132</v>
@@ -2965,10 +3005,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>7240</v>
+        <v>18215</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>135</v>
@@ -2977,37 +3017,37 @@
         <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="7">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18307</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4066</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>42</v>
+      </c>
+      <c r="N5" s="7">
+        <v>36523</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>11305</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,49 +3109,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>97996</v>
+        <v>31233</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7">
+        <v>28653</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="7">
-        <v>124</v>
-      </c>
-      <c r="I7" s="7">
-        <v>88331</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>82</v>
+      </c>
+      <c r="N7" s="7">
+        <v>59886</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M7" s="7">
-        <v>264</v>
-      </c>
-      <c r="N7" s="7">
-        <v>186327</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,49 +3160,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>31233</v>
+        <v>97996</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>124</v>
+      </c>
+      <c r="I8" s="7">
+        <v>88331</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="7">
-        <v>39</v>
-      </c>
-      <c r="I8" s="7">
-        <v>28653</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>264</v>
+      </c>
+      <c r="N8" s="7">
+        <v>186327</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M8" s="7">
-        <v>82</v>
-      </c>
-      <c r="N8" s="7">
-        <v>59886</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,49 +3264,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7">
-        <v>161482</v>
+        <v>61684</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>92</v>
+      </c>
+      <c r="I10" s="7">
+        <v>59736</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="7">
-        <v>226</v>
-      </c>
-      <c r="I10" s="7">
-        <v>145977</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>180</v>
+      </c>
+      <c r="N10" s="7">
+        <v>121419</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="7">
-        <v>461</v>
-      </c>
-      <c r="N10" s="7">
-        <v>307460</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,49 +3315,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="D11" s="7">
-        <v>61684</v>
+        <v>161482</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>226</v>
+      </c>
+      <c r="I11" s="7">
+        <v>145977</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="7">
-        <v>92</v>
-      </c>
-      <c r="I11" s="7">
-        <v>59736</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="7">
+        <v>461</v>
+      </c>
+      <c r="N11" s="7">
+        <v>307460</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M11" s="7">
-        <v>180</v>
-      </c>
-      <c r="N11" s="7">
-        <v>121419</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,49 +3419,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>103913</v>
+        <v>60934</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="7">
+        <v>51</v>
+      </c>
+      <c r="I13" s="7">
+        <v>32862</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="7">
-        <v>191</v>
-      </c>
-      <c r="I13" s="7">
-        <v>122514</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>144</v>
+      </c>
+      <c r="N13" s="7">
+        <v>93796</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M13" s="7">
-        <v>352</v>
-      </c>
-      <c r="N13" s="7">
-        <v>226427</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,49 +3470,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D14" s="7">
-        <v>60934</v>
+        <v>103913</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>191</v>
+      </c>
+      <c r="I14" s="7">
+        <v>122514</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="7">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32862</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>352</v>
+      </c>
+      <c r="N14" s="7">
+        <v>226427</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="7">
-        <v>144</v>
-      </c>
-      <c r="N14" s="7">
-        <v>93796</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,40 +3574,40 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>161927</v>
+        <v>45727</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>56</v>
+      </c>
+      <c r="I16" s="7">
+        <v>42501</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="7">
-        <v>219</v>
-      </c>
-      <c r="I16" s="7">
-        <v>167799</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>439</v>
+        <v>118</v>
       </c>
       <c r="N16" s="7">
-        <v>329726</v>
+        <v>88228</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>201</v>
@@ -3585,10 +3625,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="D17" s="7">
-        <v>45727</v>
+        <v>161927</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>204</v>
@@ -3600,34 +3640,34 @@
         <v>206</v>
       </c>
       <c r="H17" s="7">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="I17" s="7">
-        <v>42501</v>
+        <v>167799</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
-        <v>118</v>
+        <v>439</v>
       </c>
       <c r="N17" s="7">
-        <v>88228</v>
+        <v>329726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,49 +3729,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>777</v>
+        <v>293</v>
       </c>
       <c r="D19" s="7">
-        <v>543535</v>
+        <v>206817</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
-        <v>781</v>
+        <v>243</v>
       </c>
       <c r="I19" s="7">
-        <v>542928</v>
+        <v>167818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
-        <v>1558</v>
+        <v>536</v>
       </c>
       <c r="N19" s="7">
-        <v>1086462</v>
+        <v>374635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,49 +3780,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>293</v>
+        <v>777</v>
       </c>
       <c r="D20" s="7">
-        <v>206817</v>
+        <v>543535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
-        <v>243</v>
+        <v>781</v>
       </c>
       <c r="I20" s="7">
-        <v>167818</v>
+        <v>542928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
-        <v>536</v>
+        <v>1558</v>
       </c>
       <c r="N20" s="7">
-        <v>374635</v>
+        <v>1086462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,6 +3874,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3854,8 +3899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5D105A-5921-4A71-B88F-68D7B5BB009D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7BB99D-CCA6-41D6-8BAF-3A17435BE9E6}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3871,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,49 +4017,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>20457</v>
+        <v>5117</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>17078</v>
+        <v>5449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>37535</v>
+        <v>10566</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4068,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>5117</v>
+        <v>20457</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>5449</v>
+        <v>17078</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>10566</v>
+        <v>37535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,40 +4172,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>101249</v>
+        <v>21253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>89965</v>
+        <v>21215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>191214</v>
+        <v>42468</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>129</v>
@@ -4178,10 +4223,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D8" s="7">
-        <v>21253</v>
+        <v>101249</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>257</v>
@@ -4193,34 +4238,34 @@
         <v>259</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I8" s="7">
-        <v>21215</v>
+        <v>89965</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>268</v>
+      </c>
+      <c r="N8" s="7">
+        <v>191214</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M8" s="7">
-        <v>60</v>
-      </c>
-      <c r="N8" s="7">
-        <v>42468</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,49 +4327,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>189109</v>
+        <v>35250</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7">
+        <v>38477</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="7">
+      <c r="K10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="7">
+        <v>115</v>
+      </c>
+      <c r="N10" s="7">
+        <v>73727</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="I10" s="7">
-        <v>168770</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M10" s="7">
-        <v>551</v>
-      </c>
-      <c r="N10" s="7">
-        <v>357879</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,49 +4378,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="D11" s="7">
-        <v>35250</v>
+        <v>189109</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>272</v>
+      </c>
+      <c r="I11" s="7">
+        <v>168770</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="7">
-        <v>62</v>
-      </c>
-      <c r="I11" s="7">
-        <v>38477</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>551</v>
+      </c>
+      <c r="N11" s="7">
+        <v>357879</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M11" s="7">
-        <v>115</v>
-      </c>
-      <c r="N11" s="7">
-        <v>73727</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,49 +4482,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>134264</v>
+        <v>32409</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>58</v>
+      </c>
+      <c r="I13" s="7">
+        <v>34286</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H13" s="7">
-        <v>201</v>
-      </c>
-      <c r="I13" s="7">
-        <v>121711</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>107</v>
+      </c>
+      <c r="N13" s="7">
+        <v>66695</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="M13" s="7">
-        <v>400</v>
-      </c>
-      <c r="N13" s="7">
-        <v>255975</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,49 +4533,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>32409</v>
+        <v>134264</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>201</v>
+      </c>
+      <c r="I14" s="7">
+        <v>121711</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H14" s="7">
-        <v>58</v>
-      </c>
-      <c r="I14" s="7">
-        <v>34286</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>400</v>
+      </c>
+      <c r="N14" s="7">
+        <v>255975</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M14" s="7">
-        <v>107</v>
-      </c>
-      <c r="N14" s="7">
-        <v>66695</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,49 +4637,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>174419</v>
+        <v>30499</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>36</v>
+      </c>
+      <c r="I16" s="7">
+        <v>24657</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H16" s="7">
-        <v>245</v>
-      </c>
-      <c r="I16" s="7">
-        <v>182763</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>78</v>
+      </c>
+      <c r="N16" s="7">
+        <v>55155</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="M16" s="7">
-        <v>492</v>
-      </c>
-      <c r="N16" s="7">
-        <v>357183</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,49 +4688,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="D17" s="7">
-        <v>30499</v>
+        <v>174419</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>245</v>
+      </c>
+      <c r="I17" s="7">
+        <v>182763</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H17" s="7">
-        <v>36</v>
-      </c>
-      <c r="I17" s="7">
-        <v>24657</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>492</v>
+      </c>
+      <c r="N17" s="7">
+        <v>357183</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="M17" s="7">
-        <v>78</v>
-      </c>
-      <c r="N17" s="7">
-        <v>55155</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,49 +4792,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>886</v>
+        <v>178</v>
       </c>
       <c r="D19" s="7">
-        <v>619499</v>
+        <v>124527</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>194</v>
+      </c>
+      <c r="I19" s="7">
+        <v>124084</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H19" s="7">
-        <v>867</v>
-      </c>
-      <c r="I19" s="7">
-        <v>580287</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>372</v>
+      </c>
+      <c r="N19" s="7">
+        <v>248611</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="M19" s="7">
-        <v>1753</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1199786</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,49 +4843,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>178</v>
+        <v>886</v>
       </c>
       <c r="D20" s="7">
-        <v>124527</v>
+        <v>619499</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>867</v>
+      </c>
+      <c r="I20" s="7">
+        <v>580287</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H20" s="7">
-        <v>194</v>
-      </c>
-      <c r="I20" s="7">
-        <v>124084</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1753</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1199786</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="M20" s="7">
-        <v>372</v>
-      </c>
-      <c r="N20" s="7">
-        <v>248611</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,6 +4937,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4912,8 +4962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E538D4-0E8F-4A21-8B73-92F71050819F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052F8CA-DF6E-4848-A0A9-F323BE41021B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4929,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5030,49 +5080,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>11391</v>
+        <v>1307</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4911</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="7">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7">
-        <v>11876</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6218</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="M4" s="7">
-        <v>36</v>
-      </c>
-      <c r="N4" s="7">
-        <v>23267</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,49 +5131,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>1307</v>
+        <v>11391</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7">
+        <v>11876</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4911</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>36</v>
+      </c>
+      <c r="N5" s="7">
+        <v>23267</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6218</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,49 +5235,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>96631</v>
+        <v>17965</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7">
+        <v>15402</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H7" s="7">
-        <v>143</v>
-      </c>
-      <c r="I7" s="7">
-        <v>88493</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>49</v>
+      </c>
+      <c r="N7" s="7">
+        <v>33367</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="M7" s="7">
-        <v>271</v>
-      </c>
-      <c r="N7" s="7">
-        <v>185123</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,49 +5286,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D8" s="7">
-        <v>17965</v>
+        <v>96631</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>143</v>
+      </c>
+      <c r="I8" s="7">
+        <v>88493</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H8" s="7">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7">
-        <v>15402</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>271</v>
+      </c>
+      <c r="N8" s="7">
+        <v>185123</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M8" s="7">
-        <v>49</v>
-      </c>
-      <c r="N8" s="7">
-        <v>33367</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,49 +5390,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>218448</v>
+        <v>31738</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>49</v>
+      </c>
+      <c r="I10" s="7">
+        <v>33996</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H10" s="7">
-        <v>231</v>
-      </c>
-      <c r="I10" s="7">
-        <v>158356</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>92</v>
+      </c>
+      <c r="N10" s="7">
+        <v>65734</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="M10" s="7">
-        <v>531</v>
-      </c>
-      <c r="N10" s="7">
-        <v>376804</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,49 +5441,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>31738</v>
+        <v>218448</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>231</v>
+      </c>
+      <c r="I11" s="7">
+        <v>158356</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H11" s="7">
-        <v>49</v>
-      </c>
-      <c r="I11" s="7">
-        <v>33996</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>531</v>
+      </c>
+      <c r="N11" s="7">
+        <v>376804</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="M11" s="7">
-        <v>92</v>
-      </c>
-      <c r="N11" s="7">
-        <v>65734</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,46 +5545,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>147910</v>
+        <v>25298</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>40</v>
+      </c>
+      <c r="I13" s="7">
+        <v>26761</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H13" s="7">
-        <v>186</v>
-      </c>
-      <c r="I13" s="7">
-        <v>141141</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>72</v>
+      </c>
+      <c r="N13" s="7">
+        <v>52059</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="M13" s="7">
-        <v>379</v>
-      </c>
-      <c r="N13" s="7">
-        <v>289051</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>397</v>
@@ -5546,10 +5596,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="D14" s="7">
-        <v>25298</v>
+        <v>147910</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>398</v>
@@ -5561,10 +5611,10 @@
         <v>400</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="I14" s="7">
-        <v>26761</v>
+        <v>141141</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>401</v>
@@ -5576,10 +5626,10 @@
         <v>403</v>
       </c>
       <c r="M14" s="7">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="N14" s="7">
-        <v>52059</v>
+        <v>289051</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>404</v>
@@ -5588,7 +5638,7 @@
         <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,49 +5700,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7">
-        <v>142413</v>
+        <v>32603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>154076</v>
+        <v>17135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
-        <v>406</v>
+        <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>296488</v>
+        <v>49738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,49 +5751,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="D17" s="7">
-        <v>32603</v>
+        <v>142413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="I17" s="7">
-        <v>17135</v>
+        <v>154076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>419</v>
       </c>
       <c r="M17" s="7">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="N17" s="7">
-        <v>49738</v>
+        <v>296488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,49 +5855,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>831</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7">
-        <v>616792</v>
+        <v>108912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
-        <v>792</v>
+        <v>149</v>
       </c>
       <c r="I19" s="7">
-        <v>553942</v>
+        <v>98205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
-        <v>1623</v>
+        <v>295</v>
       </c>
       <c r="N19" s="7">
-        <v>1170734</v>
+        <v>207117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,49 +5906,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>146</v>
+        <v>831</v>
       </c>
       <c r="D20" s="7">
-        <v>108912</v>
+        <v>616792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
-        <v>149</v>
+        <v>792</v>
       </c>
       <c r="I20" s="7">
-        <v>98205</v>
+        <v>553942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
-        <v>295</v>
+        <v>1623</v>
       </c>
       <c r="N20" s="7">
-        <v>207117</v>
+        <v>1170734</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,6 +6000,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP22_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB33506A-6629-46F4-96AC-5104E810FFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE5EA43-D896-4185-83D6-4CF83D46799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C77E5780-7F7F-40B5-A2CD-318A9DC5467B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC2E50C5-6DA3-441D-A19B-E6C797720B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>16,17%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,202 +107,202 @@
     <t>83,83%</t>
   </si>
   <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>73,62%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>73,87%</t>
   </si>
   <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>73,74%</t>
   </si>
   <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,109 +311,103 @@
     <t>16,99%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>83,01%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>21,73%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -425,943 +419,925 @@
     <t>28,44%</t>
   </si>
   <si>
-    <t>48,75%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>51,25%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>81,83%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>24,17%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>75,83%</t>
   </si>
   <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>75,51%</t>
   </si>
   <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>75,68%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>34,15%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>65,85%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>36,96%</t>
   </si>
   <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>63,04%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>70,71%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>27,56%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>26,62%</t>
   </si>
   <si>
     <t>25,64%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>72,44%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>73,38%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2015 (Tasa respuesta: 99,95%)</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2016 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>79,99%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>17,35%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>82,65%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>19,92%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>6,94%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>93,06%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>17,43%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>13,46%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>82,57%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>86,54%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DE6F3-0E6B-45B3-88A2-7FB79FBFD5E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1385D2-D9E0-4441-A3AC-E43F610A384B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2702,13 +2678,13 @@
         <v>288690</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2699,13 @@
         <v>565671</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>817</v>
@@ -2738,13 +2714,13 @@
         <v>549360</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1668</v>
@@ -2753,13 +2729,13 @@
         <v>1115031</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC764E16-3550-4C81-8E6E-437F6E5ACD73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C4F21C-4459-4AE2-A0DF-EEB2A244E4B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,13 +2936,13 @@
         <v>7240</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2975,13 +2951,13 @@
         <v>4066</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -2990,13 +2966,13 @@
         <v>11305</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2987,13 @@
         <v>18215</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -3288,10 +3264,10 @@
         <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -3300,13 +3276,13 @@
         <v>121419</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3297,13 @@
         <v>161482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>226</v>
@@ -3336,13 +3312,13 @@
         <v>145977</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>461</v>
@@ -3351,13 +3327,13 @@
         <v>307460</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3401,13 @@
         <v>60934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -3440,13 +3416,13 @@
         <v>32862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>144</v>
@@ -3455,13 +3431,13 @@
         <v>93796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3452,13 @@
         <v>103913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>191</v>
@@ -3491,13 +3467,13 @@
         <v>122514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>352</v>
@@ -3506,13 +3482,13 @@
         <v>226427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3556,13 @@
         <v>45727</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3595,13 +3571,13 @@
         <v>42501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -3610,13 +3586,13 @@
         <v>88228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3637,13 @@
         <v>329726</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3711,13 @@
         <v>206817</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>243</v>
@@ -3750,13 +3726,13 @@
         <v>167818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>536</v>
@@ -3765,13 +3741,13 @@
         <v>374635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3762,13 @@
         <v>543535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>781</v>
@@ -3801,13 +3777,13 @@
         <v>542928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>1558</v>
@@ -3816,13 +3792,13 @@
         <v>1086462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7BB99D-CCA6-41D6-8BAF-3A17435BE9E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F417FDF1-06AE-4BEA-9106-BA884FCA9330}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,13 +3999,13 @@
         <v>5117</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4038,13 +4014,13 @@
         <v>5449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4053,13 +4029,13 @@
         <v>10566</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4050,13 @@
         <v>20457</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4089,13 +4065,13 @@
         <v>17078</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4104,13 +4080,13 @@
         <v>37535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4154,13 @@
         <v>21253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4193,13 +4169,13 @@
         <v>21215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -4208,13 +4184,13 @@
         <v>42468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4205,13 @@
         <v>101249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>131</v>
@@ -4244,13 +4220,13 @@
         <v>89965</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -4262,10 +4238,10 @@
         <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4309,13 @@
         <v>35250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4348,13 +4324,13 @@
         <v>38477</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4363,13 +4339,13 @@
         <v>73727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4360,13 @@
         <v>189109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>272</v>
@@ -4399,13 +4375,13 @@
         <v>168770</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>551</v>
@@ -4414,13 +4390,13 @@
         <v>357879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4464,13 @@
         <v>32409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4503,13 +4479,13 @@
         <v>34286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -4518,13 +4494,13 @@
         <v>66695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4515,13 @@
         <v>134264</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -4554,13 +4530,13 @@
         <v>121711</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>400</v>
@@ -4569,13 +4545,13 @@
         <v>255975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4619,13 @@
         <v>30499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4658,13 +4634,13 @@
         <v>24657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -4673,13 +4649,13 @@
         <v>55155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4670,13 @@
         <v>174419</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>245</v>
@@ -4709,13 +4685,13 @@
         <v>182763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>492</v>
@@ -4724,13 +4700,13 @@
         <v>357183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4774,13 @@
         <v>124527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -4813,13 +4789,13 @@
         <v>124084</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>372</v>
@@ -4828,13 +4804,13 @@
         <v>248611</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4825,13 @@
         <v>619499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>867</v>
@@ -4864,13 +4840,13 @@
         <v>580287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>1753</v>
@@ -4879,13 +4855,13 @@
         <v>1199786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1052F8CA-DF6E-4848-A0A9-F323BE41021B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED6375F-AF59-4CC9-9B6C-33402DCC76BA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,13 +5062,13 @@
         <v>1307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5101,13 +5077,13 @@
         <v>4911</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5116,13 +5092,13 @@
         <v>6218</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5113,13 @@
         <v>11391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5152,13 +5128,13 @@
         <v>11876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5167,13 +5143,13 @@
         <v>23267</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5217,13 @@
         <v>17965</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5256,13 +5232,13 @@
         <v>15402</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5271,13 +5247,13 @@
         <v>33367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5268,13 @@
         <v>96631</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -5307,13 +5283,13 @@
         <v>88493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>271</v>
@@ -5322,13 +5298,13 @@
         <v>185123</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5372,13 @@
         <v>31738</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -5411,13 +5387,13 @@
         <v>33996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -5426,13 +5402,13 @@
         <v>65734</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5423,13 @@
         <v>218448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>231</v>
@@ -5462,13 +5438,13 @@
         <v>158356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>531</v>
@@ -5477,13 +5453,13 @@
         <v>376804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5527,13 @@
         <v>25298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -5566,13 +5542,13 @@
         <v>26761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -5581,13 +5557,13 @@
         <v>52059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5578,13 @@
         <v>147910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -5617,13 +5593,13 @@
         <v>141141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -5632,13 +5608,13 @@
         <v>289051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5682,13 @@
         <v>32603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5721,13 +5697,13 @@
         <v>17135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -5736,13 +5712,13 @@
         <v>49738</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5733,13 @@
         <v>142413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -5772,13 +5748,13 @@
         <v>154076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -5787,13 +5763,13 @@
         <v>296488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5837,13 @@
         <v>108912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -5876,13 +5852,13 @@
         <v>98205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>295</v>
@@ -5891,13 +5867,13 @@
         <v>207117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5888,13 @@
         <v>616792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>792</v>
@@ -5927,13 +5903,13 @@
         <v>553942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>1623</v>
@@ -5942,13 +5918,13 @@
         <v>1170734</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP22_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP22_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE5EA43-D896-4185-83D6-4CF83D46799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{982278D4-DC72-4B88-A058-E3D6D81D3874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC2E50C5-6DA3-441D-A19B-E6C797720B5D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{647E0BEB-410E-4544-9553-0F6C457AAF81}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Menores según si han utilizado las urgencias en el último año en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1276 +68,1087 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>Menores según si han utilizado las urgencias en el último año en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1385D2-D9E0-4441-A3AC-E43F610A384B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C0F5E2-EDA5-4309-965C-BAD7A7C95AA7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>4114</v>
+        <v>27747</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>4571</v>
+        <v>25561</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>8686</v>
+        <v>53308</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7">
-        <v>21330</v>
+        <v>110979</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="I5" s="7">
-        <v>18153</v>
+        <v>127516</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>51</v>
+        <v>352</v>
       </c>
       <c r="N5" s="7">
-        <v>39482</v>
+        <v>238495</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7">
-        <v>21447</v>
+        <v>39951</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2037,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I7" s="7">
-        <v>23176</v>
+        <v>56672</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2052,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="N7" s="7">
-        <v>44622</v>
+        <v>96623</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2073,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="D8" s="7">
-        <v>106186</v>
+        <v>155212</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2088,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="I8" s="7">
-        <v>92826</v>
+        <v>155470</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2103,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>301</v>
+        <v>484</v>
       </c>
       <c r="N8" s="7">
-        <v>199013</v>
+        <v>310682</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2124,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2177,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>56672</v>
+        <v>36008</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2192,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>39951</v>
+        <v>39478</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2207,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N10" s="7">
-        <v>96623</v>
+        <v>75486</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2228,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>155470</v>
+        <v>101809</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2243,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="I11" s="7">
-        <v>155212</v>
+        <v>110179</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2258,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>484</v>
+        <v>341</v>
       </c>
       <c r="N11" s="7">
-        <v>310682</v>
+        <v>211988</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2279,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>39478</v>
+        <v>27955</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2347,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>36008</v>
+        <v>35318</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2362,10 +2173,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>75486</v>
+        <v>63273</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2383,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>110179</v>
+        <v>181360</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2398,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7">
-        <v>101809</v>
+        <v>172506</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2413,10 +2224,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="N14" s="7">
-        <v>211988</v>
+        <v>353866</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2434,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="D16" s="7">
-        <v>35318</v>
+        <v>131661</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>235</v>
+      </c>
+      <c r="I16" s="7">
+        <v>157029</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>27955</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>436</v>
+      </c>
+      <c r="N16" s="7">
+        <v>288690</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>89</v>
-      </c>
-      <c r="N16" s="7">
-        <v>63273</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>254</v>
+        <v>817</v>
       </c>
       <c r="D17" s="7">
-        <v>172506</v>
+        <v>549360</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>851</v>
+      </c>
+      <c r="I17" s="7">
+        <v>565671</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>237</v>
-      </c>
-      <c r="I17" s="7">
-        <v>181360</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1668</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1115031</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>491</v>
-      </c>
-      <c r="N17" s="7">
-        <v>353866</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>235</v>
-      </c>
-      <c r="D19" s="7">
-        <v>157029</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>201</v>
-      </c>
-      <c r="I19" s="7">
-        <v>131661</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>436</v>
-      </c>
-      <c r="N19" s="7">
-        <v>288690</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>851</v>
-      </c>
-      <c r="D20" s="7">
-        <v>565671</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>817</v>
-      </c>
-      <c r="I20" s="7">
-        <v>549360</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1668</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1115031</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C4F21C-4459-4AE2-A0DF-EEB2A244E4B0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474199F2-0FD8-40DB-BB43-2C382616B9BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>7240</v>
+        <v>32719</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>4066</v>
+        <v>38472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>11305</v>
+        <v>71191</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="D5" s="7">
-        <v>18215</v>
+        <v>106638</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>18307</v>
+        <v>116212</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="N5" s="7">
-        <v>36523</v>
+        <v>222850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>31233</v>
+        <v>59736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>28653</v>
+        <v>61684</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="N7" s="7">
-        <v>59886</v>
+        <v>121419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>226</v>
+      </c>
+      <c r="D8" s="7">
+        <v>145977</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
+        <v>235</v>
+      </c>
+      <c r="I8" s="7">
+        <v>161482</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="7">
-        <v>97996</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="7">
-        <v>124</v>
-      </c>
-      <c r="I8" s="7">
-        <v>88331</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="M8" s="7">
-        <v>264</v>
+        <v>461</v>
       </c>
       <c r="N8" s="7">
-        <v>186327</v>
+        <v>307460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="D9" s="7">
-        <v>129229</v>
+        <v>205713</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>223166</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>346</v>
+        <v>641</v>
       </c>
       <c r="N9" s="7">
-        <v>246213</v>
+        <v>428879</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3240,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>61684</v>
+        <v>32862</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>59736</v>
+        <v>60934</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="N10" s="7">
-        <v>121419</v>
+        <v>93796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>161482</v>
+        <v>122514</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="I11" s="7">
-        <v>145977</v>
+        <v>103913</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>461</v>
+        <v>352</v>
       </c>
       <c r="N11" s="7">
-        <v>307460</v>
+        <v>226427</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>223166</v>
+        <v>155376</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="I12" s="7">
-        <v>205713</v>
+        <v>164847</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>641</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>428879</v>
+        <v>320223</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>60934</v>
+        <v>42501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>32862</v>
+        <v>45727</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="N13" s="7">
-        <v>93796</v>
+        <v>88228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>103913</v>
+        <v>167799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="I14" s="7">
-        <v>122514</v>
+        <v>161927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="N14" s="7">
-        <v>226427</v>
+        <v>329726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>164847</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="I15" s="7">
-        <v>155376</v>
+        <v>207654</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="N15" s="7">
-        <v>320223</v>
+        <v>417954</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="D16" s="7">
-        <v>45727</v>
+        <v>167818</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="I16" s="7">
-        <v>42501</v>
+        <v>206817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>118</v>
+        <v>536</v>
       </c>
       <c r="N16" s="7">
-        <v>88228</v>
+        <v>374635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>220</v>
+        <v>781</v>
       </c>
       <c r="D17" s="7">
-        <v>161927</v>
+        <v>542928</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>219</v>
+        <v>777</v>
       </c>
       <c r="I17" s="7">
-        <v>167799</v>
+        <v>543535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>439</v>
+        <v>1558</v>
       </c>
       <c r="N17" s="7">
-        <v>329726</v>
+        <v>1086462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>282</v>
+        <v>1024</v>
       </c>
       <c r="D18" s="7">
-        <v>207654</v>
+        <v>710746</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1070</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>750352</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>557</v>
+        <v>2094</v>
       </c>
       <c r="N18" s="7">
-        <v>417954</v>
+        <v>1461097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>293</v>
-      </c>
-      <c r="D19" s="7">
-        <v>206817</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>167818</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M19" s="7">
-        <v>536</v>
-      </c>
-      <c r="N19" s="7">
-        <v>374635</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>777</v>
-      </c>
-      <c r="D20" s="7">
-        <v>543535</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7">
-        <v>781</v>
-      </c>
-      <c r="I20" s="7">
-        <v>542928</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1558</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1086462</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D21" s="7">
-        <v>750352</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I21" s="7">
-        <v>710746</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1461097</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F417FDF1-06AE-4BEA-9106-BA884FCA9330}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A547380-94CD-4F26-93C3-A86C335E5566}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>5117</v>
+        <v>26664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>5449</v>
+        <v>26370</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>10566</v>
+        <v>53034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>20457</v>
+        <v>107043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>17078</v>
+        <v>121706</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="N5" s="7">
-        <v>37535</v>
+        <v>228749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>21253</v>
+        <v>38477</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>21215</v>
+        <v>35250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="N7" s="7">
-        <v>42468</v>
+        <v>73727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>101249</v>
+        <v>168770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="I8" s="7">
-        <v>89965</v>
+        <v>189109</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>268</v>
+        <v>551</v>
       </c>
       <c r="N8" s="7">
-        <v>191214</v>
+        <v>357879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4303,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>35250</v>
+        <v>34286</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="7">
+        <v>49</v>
+      </c>
+      <c r="I10" s="7">
+        <v>32409</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" s="7">
-        <v>62</v>
-      </c>
-      <c r="I10" s="7">
-        <v>38477</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N10" s="7">
-        <v>73727</v>
+        <v>66695</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>189109</v>
+        <v>121711</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="7">
+        <v>199</v>
+      </c>
+      <c r="I11" s="7">
+        <v>134264</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>168770</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="M11" s="7">
-        <v>551</v>
+        <v>400</v>
       </c>
       <c r="N11" s="7">
-        <v>357879</v>
+        <v>255975</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4458,49 +3957,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>32409</v>
+        <v>24657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>34286</v>
+        <v>30499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>66695</v>
+        <v>55155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="D14" s="7">
-        <v>134264</v>
+        <v>182763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="I14" s="7">
-        <v>121711</v>
+        <v>174419</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="N14" s="7">
-        <v>255975</v>
+        <v>357183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>204918</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>412338</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D16" s="7">
-        <v>30499</v>
+        <v>124084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="I16" s="7">
-        <v>24657</v>
+        <v>124527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="N16" s="7">
-        <v>55155</v>
+        <v>248611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>247</v>
+        <v>867</v>
       </c>
       <c r="D17" s="7">
-        <v>174419</v>
+        <v>580287</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
-        <v>245</v>
+        <v>886</v>
       </c>
       <c r="I17" s="7">
-        <v>182763</v>
+        <v>619499</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
-        <v>492</v>
+        <v>1753</v>
       </c>
       <c r="N17" s="7">
-        <v>357183</v>
+        <v>1199786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>289</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>204918</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1064</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744026</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>570</v>
+        <v>2125</v>
       </c>
       <c r="N18" s="7">
-        <v>412338</v>
+        <v>1448397</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>178</v>
-      </c>
-      <c r="D19" s="7">
-        <v>124527</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>194</v>
-      </c>
-      <c r="I19" s="7">
-        <v>124084</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>372</v>
-      </c>
-      <c r="N19" s="7">
-        <v>248611</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>886</v>
-      </c>
-      <c r="D20" s="7">
-        <v>619499</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>867</v>
-      </c>
-      <c r="I20" s="7">
-        <v>580287</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1753</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1199786</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744026</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1448397</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED6375F-AF59-4CC9-9B6C-33402DCC76BA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79FC783-89F3-4126-87D3-404C4D2E40C1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>1307</v>
+        <v>20629</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>4911</v>
+        <v>21169</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>6218</v>
+        <v>41797</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>11391</v>
+        <v>96651</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="I5" s="7">
-        <v>11876</v>
+        <v>119243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="N5" s="7">
-        <v>23267</v>
+        <v>215896</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>17965</v>
+        <v>37667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>15402</v>
+        <v>33358</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="N7" s="7">
-        <v>33367</v>
+        <v>71024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="D8" s="7">
-        <v>96631</v>
+        <v>152845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="I8" s="7">
-        <v>88493</v>
+        <v>221677</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>271</v>
+        <v>531</v>
       </c>
       <c r="N8" s="7">
-        <v>185123</v>
+        <v>374524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5366,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>31738</v>
+        <v>26895</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>33996</v>
+        <v>27674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N10" s="7">
-        <v>65734</v>
+        <v>54569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7">
-        <v>218448</v>
+        <v>162690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="I11" s="7">
-        <v>158356</v>
+        <v>157612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M11" s="7">
         <v>379</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M11" s="7">
-        <v>531</v>
-      </c>
       <c r="N11" s="7">
-        <v>376804</v>
+        <v>320302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>25298</v>
+        <v>18045</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>26761</v>
+        <v>34637</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>52059</v>
+        <v>52682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>213</v>
+      </c>
+      <c r="D14" s="7">
+        <v>149194</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H14" s="7">
         <v>193</v>
       </c>
-      <c r="D14" s="7">
-        <v>147910</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H14" s="7">
-        <v>186</v>
-      </c>
       <c r="I14" s="7">
-        <v>141141</v>
+        <v>146601</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="N14" s="7">
-        <v>289051</v>
+        <v>295795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167239</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>341110</v>
+        <v>348477</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +5013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="D16" s="7">
-        <v>32603</v>
+        <v>103235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I16" s="7">
-        <v>17135</v>
+        <v>116838</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="N16" s="7">
-        <v>49738</v>
+        <v>220073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>193</v>
+        <v>792</v>
       </c>
       <c r="D17" s="7">
-        <v>142413</v>
+        <v>561382</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>213</v>
+        <v>831</v>
       </c>
       <c r="I17" s="7">
-        <v>154076</v>
+        <v>645134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>406</v>
+        <v>1623</v>
       </c>
       <c r="N17" s="7">
-        <v>296488</v>
+        <v>1206516</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>664617</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>239</v>
+        <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>171211</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>477</v>
+        <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>346226</v>
+        <v>1426589</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>146</v>
-      </c>
-      <c r="D19" s="7">
-        <v>108912</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="7">
-        <v>149</v>
-      </c>
-      <c r="I19" s="7">
-        <v>98205</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M19" s="7">
-        <v>295</v>
-      </c>
-      <c r="N19" s="7">
-        <v>207117</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>831</v>
-      </c>
-      <c r="D20" s="7">
-        <v>616792</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" s="7">
-        <v>792</v>
-      </c>
-      <c r="I20" s="7">
-        <v>553942</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1623</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1170734</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>977</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>941</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652147</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1377851</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
